--- a/HYY/每日记录.xlsx
+++ b/HYY/每日记录.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\桌面\all\财产认证计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\桌面\all\Frat\HYY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2205286-5E70-4F19-BEA1-6D7600300C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7A5118-BF82-49C2-9AAB-D0F48C6D3F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>娱乐时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,42 @@
   </si>
   <si>
     <t>第七天(触发延时)(特殊奖励)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十天(触发延时)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十一天(达成保护条件)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10：46（00：00）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8：50（00：00）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：42《浪潮之巅》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：00《浪潮之巅》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：16《浪潮之巅》《病毒细菌人类》《矛盾论》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,6 +356,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -332,53 +374,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,22 +699,22 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9.06640625" style="1"/>
     <col min="11" max="11" width="9.06640625" customWidth="1"/>
-    <col min="12" max="14" width="9.06640625" style="6"/>
+    <col min="12" max="14" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8"/>
@@ -693,717 +729,877 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
       <c r="O1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="10"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="14"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="15">
+      <c r="A3" s="12">
         <v>44806</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17">
+      <c r="D3" s="3"/>
+      <c r="E3" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20">
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="21">
         <v>50</v>
       </c>
-      <c r="P3" s="20"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="15">
+      <c r="A4" s="12">
         <v>44807</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17">
+      <c r="D4" s="3"/>
+      <c r="E4" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="15">
+      <c r="A5" s="12">
         <v>44808</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17">
+      <c r="D5" s="3"/>
+      <c r="E5" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="15">
+      <c r="A6" s="12">
         <v>44809</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17">
+      <c r="D6" s="3"/>
+      <c r="E6" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="15">
+      <c r="A7" s="12">
         <v>44810</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17">
+      <c r="D7" s="3"/>
+      <c r="E7" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="15">
+      <c r="A8" s="12">
         <v>44811</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17">
+      <c r="D8" s="3"/>
+      <c r="E8" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="15">
+      <c r="A9" s="12">
         <v>44812</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17">
+      <c r="D9" s="3"/>
+      <c r="E9" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="15">
+      <c r="A10" s="12">
         <v>44813</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17">
+      <c r="D10" s="3"/>
+      <c r="E10" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="19" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="16">
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="3">
         <v>5</v>
       </c>
-      <c r="P10" s="16"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="15">
+      <c r="A11" s="12">
         <v>44814</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="3">
+        <v>5</v>
+      </c>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="15">
+      <c r="A12" s="12">
         <v>44815</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="3">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="15">
+      <c r="A13" s="12">
         <v>44816</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="3">
+        <v>5</v>
+      </c>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="15">
+      <c r="A14" s="12">
         <v>44817</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="15">
+      <c r="A15" s="12">
         <v>44818</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="15">
+      <c r="A16" s="12">
         <v>44819</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="15">
+      <c r="A17" s="12">
         <v>44820</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="15">
+      <c r="A18" s="12">
         <v>44821</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" s="15">
+      <c r="A19" s="12">
         <v>44822</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="15">
+      <c r="A20" s="12">
         <v>44823</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A21" s="15">
+      <c r="A21" s="12">
         <v>44824</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" s="15">
+      <c r="A22" s="12">
         <v>44825</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A23" s="15">
+      <c r="A23" s="12">
         <v>44826</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="15">
+      <c r="A24" s="12">
         <v>44827</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="15">
+      <c r="A25" s="12">
         <v>44828</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="15">
+      <c r="A26" s="12">
         <v>44829</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" s="15">
+      <c r="A27" s="12">
         <v>44830</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="15">
+      <c r="A28" s="12">
         <v>44831</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A29" s="15">
+      <c r="A29" s="12">
         <v>44832</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A30" s="15">
+      <c r="A30" s="12">
         <v>44833</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A31" s="15">
+      <c r="A31" s="12">
         <v>44834</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A32" s="15">
+      <c r="A32" s="12">
         <v>44835</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="O3:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="O1:P2"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="G3:K3"/>
@@ -1428,149 +1624,19 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="O1:P2"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="O3:P9"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HYY/每日记录.xlsx
+++ b/HYY/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\桌面\all\Frat\HYY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7A5118-BF82-49C2-9AAB-D0F48C6D3F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F09B21-8126-49D3-8D1A-CE48F651078F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>娱乐时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,14 @@
   </si>
   <si>
     <t>2：16《浪潮之巅》《病毒细菌人类》《矛盾论》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8：20（23：30）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十二天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +707,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="O14" sqref="O14:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1080,19 +1088,29 @@
         <v>44817</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="11">
+        <v>6.9444444444444434E-2</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="13"/>
+      <c r="G14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
-      <c r="O14" s="3"/>
+      <c r="O14" s="3">
+        <v>5</v>
+      </c>
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">

--- a/HYY/每日记录.xlsx
+++ b/HYY/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\桌面\all\Frat\HYY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F09B21-8126-49D3-8D1A-CE48F651078F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9099B610-C863-4201-94F8-A0462EFB0F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>娱乐时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>第十二天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：26（00：00）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：02《浪潮之巅》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十三天（时间延时·转出）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,9 +379,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -382,47 +436,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,792 +722,923 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14:P14"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9.06640625" style="1"/>
-    <col min="11" max="11" width="9.06640625" customWidth="1"/>
+    <col min="7" max="10" width="9.06640625" style="22"/>
+    <col min="11" max="11" width="9.06640625" style="22" customWidth="1"/>
     <col min="12" max="14" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="16" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="8" t="s">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="18"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="12">
+      <c r="A3" s="3">
         <v>44806</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="11">
+      <c r="D3" s="5"/>
+      <c r="E3" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="13" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="21">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="9">
         <v>50</v>
       </c>
-      <c r="P3" s="21"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="12">
+      <c r="A4" s="3">
         <v>44807</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="11">
+      <c r="D4" s="5"/>
+      <c r="E4" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="13" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="12">
+      <c r="A5" s="3">
         <v>44808</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="11">
+      <c r="D5" s="5"/>
+      <c r="E5" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="13" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="12">
+      <c r="A6" s="3">
         <v>44809</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="11">
+      <c r="D6" s="5"/>
+      <c r="E6" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="13" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="12">
+      <c r="A7" s="3">
         <v>44810</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="11">
+      <c r="D7" s="5"/>
+      <c r="E7" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="13" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="12">
+      <c r="A8" s="3">
         <v>44811</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="11">
+      <c r="D8" s="5"/>
+      <c r="E8" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="13" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="12">
+      <c r="A9" s="3">
         <v>44812</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="11">
+      <c r="D9" s="5"/>
+      <c r="E9" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="13" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="12">
+      <c r="A10" s="3">
         <v>44813</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="11">
+      <c r="D10" s="5"/>
+      <c r="E10" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="13" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="3">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5">
         <v>5</v>
       </c>
-      <c r="P10" s="3"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="12">
+      <c r="A11" s="3">
         <v>44814</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="11">
+      <c r="D11" s="5"/>
+      <c r="E11" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="20" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="13" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="3">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5">
         <v>5</v>
       </c>
-      <c r="P11" s="3"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="12">
+      <c r="A12" s="3">
         <v>44815</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="11">
+      <c r="D12" s="5"/>
+      <c r="E12" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="3">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5">
         <v>5</v>
       </c>
-      <c r="P12" s="3"/>
+      <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="12">
+      <c r="A13" s="3">
         <v>44816</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="3">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5">
         <v>5</v>
       </c>
-      <c r="P13" s="3"/>
+      <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="12">
+      <c r="A14" s="3">
         <v>44817</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="11">
+      <c r="D14" s="5"/>
+      <c r="E14" s="6">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="13" t="s">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="3">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5">
         <v>5</v>
       </c>
-      <c r="P14" s="3"/>
+      <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="12">
+      <c r="A15" s="3">
         <v>44818</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5">
+        <v>5</v>
+      </c>
+      <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="12">
+      <c r="A16" s="3">
         <v>44819</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="12">
+      <c r="A17" s="3">
         <v>44820</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="12">
+      <c r="A18" s="3">
         <v>44821</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" s="12">
+      <c r="A19" s="3">
         <v>44822</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="12">
+      <c r="A20" s="3">
         <v>44823</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A21" s="12">
+      <c r="A21" s="3">
         <v>44824</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" s="12">
+      <c r="A22" s="3">
         <v>44825</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A23" s="12">
+      <c r="A23" s="3">
         <v>44826</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="12">
+      <c r="A24" s="3">
         <v>44827</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="12">
+      <c r="A25" s="3">
         <v>44828</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="12">
+      <c r="A26" s="3">
         <v>44829</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" s="12">
+      <c r="A27" s="3">
         <v>44830</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="12">
+      <c r="A28" s="3">
         <v>44831</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A29" s="12">
+      <c r="A29" s="3">
         <v>44832</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A30" s="12">
+      <c r="A30" s="3">
         <v>44833</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A31" s="12">
+      <c r="A31" s="3">
         <v>44834</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A32" s="12">
+      <c r="A32" s="3">
         <v>44835</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="O1:P2"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="O3:P9"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
@@ -1517,144 +1663,24 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="O3:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="O1:P2"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="L11:N11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HYY/每日记录.xlsx
+++ b/HYY/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\桌面\all\Frat\HYY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9099B610-C863-4201-94F8-A0462EFB0F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505961FE-AB41-459A-8517-F2108AD1CBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>娱乐时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>第十三天（时间延时·转出）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：08《浪潮之巅》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十三天（时间延时·转入）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8：00（00：00）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,65 +391,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,798 +734,920 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9.06640625" style="1"/>
-    <col min="7" max="10" width="9.06640625" style="22"/>
-    <col min="11" max="11" width="9.06640625" style="22" customWidth="1"/>
+    <col min="7" max="10" width="9.06640625" style="3"/>
+    <col min="11" max="11" width="9.06640625" style="3" customWidth="1"/>
     <col min="12" max="14" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="16"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="17"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
+      <c r="A3" s="13">
         <v>44806</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6">
+      <c r="D3" s="11"/>
+      <c r="E3" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="4" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="9">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="22">
         <v>50</v>
       </c>
-      <c r="P3" s="9"/>
+      <c r="P3" s="22"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
+      <c r="A4" s="13">
         <v>44807</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="4" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
+      <c r="A5" s="13">
         <v>44808</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="4" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
+      <c r="A6" s="13">
         <v>44809</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="4" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="3">
+      <c r="A7" s="13">
         <v>44810</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="4" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
+      <c r="A8" s="13">
         <v>44811</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="4" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="3">
+      <c r="A9" s="13">
         <v>44812</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="4" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="3">
+      <c r="A10" s="13">
         <v>44813</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6">
+      <c r="D10" s="11"/>
+      <c r="E10" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="4" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5">
-        <v>5</v>
-      </c>
-      <c r="P10" s="5"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="22">
+        <v>50</v>
+      </c>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
+      <c r="A11" s="13">
         <v>44814</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6">
+      <c r="D11" s="11"/>
+      <c r="E11" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="4" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5">
-        <v>5</v>
-      </c>
-      <c r="P11" s="5"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
+      <c r="A12" s="13">
         <v>44815</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6">
+      <c r="D12" s="11"/>
+      <c r="E12" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="5">
-        <v>5</v>
-      </c>
-      <c r="P12" s="5"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
+      <c r="A13" s="13">
         <v>44816</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="5">
-        <v>5</v>
-      </c>
-      <c r="P13" s="5"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
+      <c r="A14" s="13">
         <v>44817</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6">
+      <c r="D14" s="11"/>
+      <c r="E14" s="12">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="4" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="5">
-        <v>5</v>
-      </c>
-      <c r="P14" s="5"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
+      <c r="A15" s="13">
         <v>44818</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6">
+      <c r="D15" s="11"/>
+      <c r="E15" s="12">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="4" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="5">
-        <v>5</v>
-      </c>
-      <c r="P15" s="5"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
+      <c r="A16" s="13">
         <v>44819</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
+      <c r="A17" s="13">
         <v>44820</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
+      <c r="A18" s="13">
         <v>44821</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
+      <c r="A19" s="13">
         <v>44822</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
+      <c r="A20" s="13">
         <v>44823</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A21" s="3">
+      <c r="A21" s="13">
         <v>44824</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" s="3">
+      <c r="A22" s="13">
         <v>44825</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A23" s="3">
+      <c r="A23" s="13">
         <v>44826</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
+      <c r="A24" s="13">
         <v>44827</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
+      <c r="A25" s="13">
         <v>44828</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
+      <c r="A26" s="13">
         <v>44829</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" s="3">
+      <c r="A27" s="13">
         <v>44830</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="3">
+      <c r="A28" s="13">
         <v>44831</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A29" s="3">
+      <c r="A29" s="13">
         <v>44832</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A30" s="3">
+      <c r="A30" s="13">
         <v>44833</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A31" s="3">
+      <c r="A31" s="13">
         <v>44834</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A32" s="3">
+      <c r="A32" s="13">
         <v>44835</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="180">
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
+  <mergeCells count="174">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="O3:P9"/>
+    <mergeCell ref="O10:P16"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="O1:P2"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="G3:K3"/>
@@ -1538,149 +1672,19 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="O1:P2"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="O3:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HYY/每日记录.xlsx
+++ b/HYY/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\桌面\all\Frat\HYY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505961FE-AB41-459A-8517-F2108AD1CBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5A9187-7E5E-4684-8EC2-7F31BC068420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>娱乐时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,11 +191,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第十三天（时间延时·转入）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8：00（00：00）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：30（00：00）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：06《浪潮之巅》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十四天（时间延时·转入）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十五天（时间延时·转入）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,9 +406,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -408,48 +462,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -746,789 +758,907 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="16" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="19"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="13">
+      <c r="A3" s="4">
         <v>44806</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="14" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="22">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="10">
         <v>50</v>
       </c>
-      <c r="P3" s="22"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="13">
+      <c r="A4" s="4">
         <v>44807</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="14" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="13">
+      <c r="A5" s="4">
         <v>44808</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12">
+      <c r="D5" s="6"/>
+      <c r="E5" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="14" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="13">
+      <c r="A6" s="4">
         <v>44809</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12">
+      <c r="D6" s="6"/>
+      <c r="E6" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="14" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="13">
+      <c r="A7" s="4">
         <v>44810</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12">
+      <c r="D7" s="6"/>
+      <c r="E7" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="14" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="13">
+      <c r="A8" s="4">
         <v>44811</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="14" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="13">
+      <c r="A9" s="4">
         <v>44812</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12">
+      <c r="D9" s="6"/>
+      <c r="E9" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="14" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="13">
+      <c r="A10" s="4">
         <v>44813</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12">
+      <c r="D10" s="6"/>
+      <c r="E10" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="14" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="22">
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="10">
         <v>50</v>
       </c>
-      <c r="P10" s="22"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="13">
+      <c r="A11" s="4">
         <v>44814</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12">
+      <c r="D11" s="6"/>
+      <c r="E11" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="14" t="s">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="13">
+      <c r="A12" s="4">
         <v>44815</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12">
+      <c r="D12" s="6"/>
+      <c r="E12" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="13">
+      <c r="A13" s="4">
         <v>44816</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="13">
+      <c r="A14" s="4">
         <v>44817</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12">
+      <c r="D14" s="6"/>
+      <c r="E14" s="7">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="14" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="13">
+      <c r="A15" s="4">
         <v>44818</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12">
+      <c r="D15" s="6"/>
+      <c r="E15" s="7">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="14" t="s">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="13">
+      <c r="A16" s="4">
         <v>44819</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
+        <v>44820</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12">
-        <v>0.12847222222222224</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="13">
-        <v>44820</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6">
+        <v>5</v>
+      </c>
+      <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="13">
+      <c r="A18" s="4">
         <v>44821</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" s="13">
+      <c r="A19" s="4">
         <v>44822</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="13">
+      <c r="A20" s="4">
         <v>44823</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A21" s="13">
+      <c r="A21" s="4">
         <v>44824</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" s="13">
+      <c r="A22" s="4">
         <v>44825</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A23" s="13">
+      <c r="A23" s="4">
         <v>44826</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="13">
+      <c r="A24" s="4">
         <v>44827</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="13">
+      <c r="A25" s="4">
         <v>44828</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="13">
+      <c r="A26" s="4">
         <v>44829</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" s="13">
+      <c r="A27" s="4">
         <v>44830</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="13">
+      <c r="A28" s="4">
         <v>44831</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A29" s="13">
+      <c r="A29" s="4">
         <v>44832</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A30" s="13">
+      <c r="A30" s="4">
         <v>44833</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A31" s="13">
+      <c r="A31" s="4">
         <v>44834</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A32" s="13">
+      <c r="A32" s="4">
         <v>44835</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="174">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="G1:K2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="O1:P2"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="O3:P9"/>
+    <mergeCell ref="O10:P16"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
@@ -1553,138 +1683,30 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="L11:N11"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="L9:N9"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="O3:P9"/>
-    <mergeCell ref="O10:P16"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="O1:P2"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="G1:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HYY/每日记录.xlsx
+++ b/HYY/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\桌面\all\Frat\HYY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5A9187-7E5E-4684-8EC2-7F31BC068420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E8A02A-3180-4650-A9A2-19189E93A4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>娱乐时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,34 @@
   </si>
   <si>
     <t>第十五天（时间延时·转入）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十六天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十七天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：32《浪潮之巅》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：44《浪潮之巅》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8：34（00：00）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：27（22：57）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十八天(触发延时)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -391,11 +419,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,20 +471,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -427,41 +528,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -758,794 +832,948 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="12" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="17"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="18"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
+      <c r="A3" s="13">
         <v>44806</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7">
+      <c r="D3" s="11"/>
+      <c r="E3" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="5" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="10">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="22">
         <v>50</v>
       </c>
-      <c r="P3" s="10"/>
+      <c r="P3" s="22"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
+      <c r="A4" s="13">
         <v>44807</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="5" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+      <c r="A5" s="13">
         <v>44808</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="5" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
+      <c r="A6" s="13">
         <v>44809</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="5" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
+      <c r="A7" s="13">
         <v>44810</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="5" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
+      <c r="A8" s="13">
         <v>44811</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="5" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
+      <c r="A9" s="13">
         <v>44812</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="5" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
+      <c r="A10" s="13">
         <v>44813</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7">
+      <c r="D10" s="11"/>
+      <c r="E10" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="5" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="10">
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="22">
         <v>50</v>
       </c>
-      <c r="P10" s="10"/>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
+      <c r="A11" s="13">
         <v>44814</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7">
+      <c r="D11" s="11"/>
+      <c r="E11" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="5" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="4">
+      <c r="A12" s="13">
         <v>44815</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7">
+      <c r="D12" s="11"/>
+      <c r="E12" s="12">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
+      <c r="A13" s="13">
         <v>44816</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
+      <c r="A14" s="13">
         <v>44817</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7">
+      <c r="D14" s="11"/>
+      <c r="E14" s="12">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="5" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
+      <c r="A15" s="13">
         <v>44818</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7">
+      <c r="D15" s="11"/>
+      <c r="E15" s="12">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="5" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="4">
+      <c r="A16" s="13">
         <v>44819</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7">
+      <c r="D16" s="11"/>
+      <c r="E16" s="12">
         <v>0.12847222222222224</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="5" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="4">
+      <c r="A17" s="13">
         <v>44820</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7">
+      <c r="D17" s="11"/>
+      <c r="E17" s="12">
         <v>9.375E-2</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="5" t="s">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6">
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="11">
         <v>5</v>
       </c>
-      <c r="P17" s="6"/>
+      <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
+      <c r="A18" s="13">
         <v>44821</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="11">
+        <v>5</v>
+      </c>
+      <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
+      <c r="A19" s="13">
         <v>44822</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="11">
+        <v>5</v>
+      </c>
+      <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
+      <c r="A20" s="13">
         <v>44823</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="11">
+        <v>5</v>
+      </c>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A21" s="4">
+      <c r="A21" s="13">
         <v>44824</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
+      <c r="A22" s="13">
         <v>44825</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A23" s="4">
+      <c r="A23" s="13">
         <v>44826</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="4">
+      <c r="A24" s="13">
         <v>44827</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="4">
+      <c r="A25" s="13">
         <v>44828</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="4">
+      <c r="A26" s="13">
         <v>44829</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" s="4">
+      <c r="A27" s="13">
         <v>44830</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="4">
+      <c r="A28" s="13">
         <v>44831</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A29" s="4">
+      <c r="A29" s="13">
         <v>44832</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A30" s="4">
+      <c r="A30" s="13">
         <v>44833</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A31" s="4">
+      <c r="A31" s="13">
         <v>44834</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A32" s="4">
+      <c r="A32" s="13">
         <v>44835</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="174">
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="O3:P9"/>
+    <mergeCell ref="O10:P16"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="O1:P2"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="G3:K3"/>
@@ -1570,143 +1798,19 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="O1:P2"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="O3:P9"/>
-    <mergeCell ref="O10:P16"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HYY/每日记录.xlsx
+++ b/HYY/每日记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\桌面\all\Frat\HYY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E8A02A-3180-4650-A9A2-19189E93A4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094109AC-64B6-459D-A98C-BB672DE5E38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>娱乐时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,54 @@
   </si>
   <si>
     <t>第十八天(触发延时)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：00《如何阅读一本书》，《网络连接》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：00（？）《如何阅读一本书》，《网络连接》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十九天(触发严格模式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二十天(存在不良记录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：06（00：00）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：20（00：00）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：12（00：00）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：00《网络连接》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二十一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 1:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二十二天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：00《网络连接》《灵激体愉》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -419,48 +467,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,15 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1275,7 +1277,7 @@
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="13">
         <v>44820</v>
       </c>
@@ -1305,7 +1307,7 @@
       </c>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="13">
         <v>44821</v>
       </c>
@@ -1335,7 +1337,7 @@
       </c>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="13">
         <v>44822</v>
       </c>
@@ -1365,7 +1367,7 @@
       </c>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="13">
         <v>44823</v>
       </c>
@@ -1395,87 +1397,127 @@
       </c>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="13">
         <v>44824</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="11"/>
+      <c r="L21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="11">
+        <v>5</v>
+      </c>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="13">
         <v>44825</v>
       </c>
       <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F22" s="11"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="14"/>
+      <c r="L22" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
-      <c r="O22" s="11"/>
+      <c r="O22" s="11">
+        <v>5</v>
+      </c>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="13">
         <v>44826</v>
       </c>
       <c r="B23" s="13"/>
-      <c r="C23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="F23" s="11"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="14"/>
+      <c r="L23" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="11"/>
+      <c r="O23" s="11">
+        <v>5</v>
+      </c>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="13">
         <v>44827</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F24" s="11"/>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="14"/>
+      <c r="L24" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="11"/>
+      <c r="O24" s="11">
+        <v>5</v>
+      </c>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="13">
         <v>44828</v>
       </c>
@@ -1495,7 +1537,7 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="13">
         <v>44829</v>
       </c>
@@ -1515,7 +1557,7 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="13">
         <v>44830</v>
       </c>
@@ -1535,7 +1577,7 @@
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="13">
         <v>44831</v>
       </c>
@@ -1555,7 +1597,7 @@
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="13">
         <v>44832</v>
       </c>
@@ -1575,7 +1617,7 @@
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="13">
         <v>44833</v>
       </c>
@@ -1594,8 +1636,11 @@
       <c r="N30" s="14"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="13">
         <v>44834</v>
       </c>
@@ -1615,7 +1660,7 @@
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="13">
         <v>44835</v>
       </c>
